--- a/public/uploads/a.xlsx
+++ b/public/uploads/a.xlsx
@@ -42,9 +42,6 @@
     <t>PRACTICAL</t>
   </si>
   <si>
-    <t>Electronics</t>
-  </si>
-  <si>
     <t>APPLIED MATHEMATICS-I</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>DME-103</t>
   </si>
   <si>
-    <t>Mechanical</t>
-  </si>
-  <si>
     <t>DME-201</t>
   </si>
   <si>
@@ -751,6 +745,12 @@
   </si>
   <si>
     <t>PROJECT ON INDUSTRIAL APPLICATION</t>
+  </si>
+  <si>
+    <t>Diploma in Electronics Engineering</t>
+  </si>
+  <si>
+    <t>Diploma in Mechanical Engineering</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30:K31"/>
+    <sheetView tabSelected="1" topLeftCell="C108" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1123,19 +1123,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1143,19 +1143,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1163,19 +1163,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1183,19 +1183,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1203,19 +1203,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1223,19 +1223,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1243,19 +1243,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>500</v>
@@ -1275,7 +1275,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1283,19 +1283,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1303,19 +1303,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1323,19 +1323,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1343,19 +1343,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1363,19 +1363,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1383,19 +1383,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1403,19 +1403,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>500</v>
@@ -1435,7 +1435,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1443,19 +1443,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1463,19 +1463,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -1483,19 +1483,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -1503,19 +1503,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -1523,19 +1523,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -1543,19 +1543,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>100</v>
@@ -1575,7 +1575,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -1595,7 +1595,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -1603,10 +1603,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>100</v>
@@ -1615,7 +1615,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -1623,10 +1623,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>100</v>
@@ -1635,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -1643,19 +1643,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31">
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -1663,19 +1663,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32">
         <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -1683,19 +1683,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F33">
         <v>4</v>
@@ -1703,19 +1703,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F34">
         <v>4</v>
@@ -1723,19 +1723,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -1743,19 +1743,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36">
         <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37">
         <v>100</v>
@@ -1775,7 +1775,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38">
         <v>100</v>
@@ -1795,7 +1795,7 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -1803,10 +1803,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39">
         <v>100</v>
@@ -1815,7 +1815,7 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40">
         <v>100</v>
@@ -1835,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -1843,19 +1843,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42">
         <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -1863,19 +1863,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -1883,19 +1883,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44">
         <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -1903,19 +1903,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45">
         <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -1923,19 +1923,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46">
         <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F46">
         <v>5</v>
@@ -1943,19 +1943,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47">
         <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48">
         <v>100</v>
@@ -1975,7 +1975,7 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -1983,10 +1983,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49">
         <v>100</v>
@@ -1995,7 +1995,7 @@
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F49">
         <v>5</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50">
         <v>100</v>
@@ -2015,7 +2015,7 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F50">
         <v>5</v>
@@ -2023,10 +2023,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51">
         <v>100</v>
@@ -2035,7 +2035,7 @@
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52">
         <v>100</v>
@@ -2055,7 +2055,7 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F52">
         <v>5</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53">
         <v>100</v>
@@ -2075,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F53">
         <v>5</v>
@@ -2083,19 +2083,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55">
         <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -2103,19 +2103,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56">
         <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F56">
         <v>6</v>
@@ -2123,19 +2123,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C57">
         <v>100</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -2143,19 +2143,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C58">
         <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F58">
         <v>6</v>
@@ -2163,19 +2163,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59">
         <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F59">
         <v>6</v>
@@ -2183,19 +2183,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60">
         <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F60">
         <v>6</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61">
         <v>100</v>
@@ -2215,7 +2215,7 @@
         <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F61">
         <v>6</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62">
         <v>100</v>
@@ -2235,7 +2235,7 @@
         <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -2243,10 +2243,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63">
         <v>100</v>
@@ -2255,7 +2255,7 @@
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64">
         <v>100</v>
@@ -2275,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -2283,10 +2283,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65">
         <v>100</v>
@@ -2295,7 +2295,7 @@
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -2303,10 +2303,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C66">
         <v>100</v>
@@ -2315,7 +2315,7 @@
         <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F66">
         <v>6</v>
@@ -2323,19 +2323,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68">
         <v>100</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F68">
         <v>7</v>
@@ -2343,19 +2343,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69">
         <v>100</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F69">
         <v>7</v>
@@ -2363,19 +2363,19 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70">
         <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F70">
         <v>7</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71">
         <v>100</v>
@@ -2395,7 +2395,7 @@
         <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F71">
         <v>7</v>
@@ -2403,10 +2403,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72">
         <v>100</v>
@@ -2415,7 +2415,7 @@
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F72">
         <v>7</v>
@@ -2423,10 +2423,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73">
         <v>100</v>
@@ -2435,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F73">
         <v>7</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C74">
         <v>100</v>
@@ -2455,7 +2455,7 @@
         <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F74">
         <v>7</v>
@@ -2463,10 +2463,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C75">
         <v>100</v>
@@ -2475,7 +2475,7 @@
         <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F75">
         <v>7</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76">
         <v>100</v>
@@ -2495,7 +2495,7 @@
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F76">
         <v>7</v>
@@ -2503,19 +2503,19 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C78">
         <v>100</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F78">
         <v>8</v>
@@ -2523,19 +2523,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C79">
         <v>100</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F79">
         <v>8</v>
@@ -2543,19 +2543,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C80">
         <v>100</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -2563,10 +2563,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C81">
         <v>100</v>
@@ -2575,7 +2575,7 @@
         <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F81">
         <v>8</v>
@@ -2583,10 +2583,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C82">
         <v>100</v>
@@ -2595,7 +2595,7 @@
         <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F82">
         <v>8</v>
@@ -2603,19 +2603,19 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C84">
         <v>100</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -2623,19 +2623,19 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85">
         <v>100</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -2643,19 +2643,19 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86">
         <v>100</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -2663,19 +2663,19 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C87">
         <v>100</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -2683,19 +2683,19 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C88">
         <v>100</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -2703,19 +2703,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C89">
         <v>100</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -2723,19 +2723,19 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C90">
         <v>100</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E90" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C91">
         <v>500</v>
@@ -2755,7 +2755,7 @@
         <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -2763,19 +2763,19 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C93">
         <v>100</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E93" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -2783,19 +2783,19 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C94">
         <v>100</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -2803,19 +2803,19 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C95">
         <v>100</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E95" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F95">
         <v>2</v>
@@ -2823,19 +2823,19 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C96">
         <v>100</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -2843,19 +2843,19 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B97" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C97">
         <v>100</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E97" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F97">
         <v>2</v>
@@ -2863,19 +2863,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C98">
         <v>100</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E98" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -2883,19 +2883,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B99" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C99">
         <v>100</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E99" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C100">
         <v>500</v>
@@ -2915,7 +2915,7 @@
         <v>6</v>
       </c>
       <c r="E100" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -2923,19 +2923,19 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B102" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C102">
         <v>100</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E102" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F102">
         <v>3</v>
@@ -2943,19 +2943,19 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C103">
         <v>100</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E103" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F103">
         <v>3</v>
@@ -2963,19 +2963,19 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C104">
         <v>100</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E104" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F104">
         <v>3</v>
@@ -2983,19 +2983,19 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C105">
         <v>100</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E105" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F105">
         <v>3</v>
@@ -3003,19 +3003,19 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C106">
         <v>100</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E106" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F106">
         <v>3</v>
@@ -3023,19 +3023,19 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C107">
         <v>100</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E107" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F107">
         <v>3</v>
@@ -3043,19 +3043,19 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B108" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C108">
         <v>400</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E108" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F108">
         <v>3</v>
@@ -3063,10 +3063,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C109">
         <v>100</v>
@@ -3075,7 +3075,7 @@
         <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F109">
         <v>3</v>
@@ -3083,19 +3083,19 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B111" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C111">
         <v>100</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E111" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F111">
         <v>4</v>
@@ -3103,19 +3103,19 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B112" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C112">
         <v>100</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E112" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F112">
         <v>4</v>
@@ -3123,19 +3123,19 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B113" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C113">
         <v>100</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E113" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F113">
         <v>4</v>
@@ -3143,19 +3143,19 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B114" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C114">
         <v>100</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E114" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F114">
         <v>4</v>
@@ -3163,19 +3163,19 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B115" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C115">
         <v>100</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E115" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F115">
         <v>4</v>
@@ -3183,19 +3183,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B116" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C116">
         <v>100</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E116" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F116">
         <v>4</v>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B117" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C117">
         <v>400</v>
@@ -3215,7 +3215,7 @@
         <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F117">
         <v>4</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C118">
         <v>100</v>
@@ -3235,7 +3235,7 @@
         <v>6</v>
       </c>
       <c r="E118" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F118">
         <v>4</v>
@@ -3243,19 +3243,19 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B120" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C120">
         <v>100</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E120" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F120">
         <v>5</v>
@@ -3263,19 +3263,19 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B121" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C121">
         <v>100</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E121" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F121">
         <v>5</v>
@@ -3283,19 +3283,19 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B122" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C122">
         <v>100</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E122" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F122">
         <v>5</v>
@@ -3303,19 +3303,19 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B123" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C123">
         <v>100</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E123" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F123">
         <v>5</v>
@@ -3323,19 +3323,19 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B124" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C124">
         <v>100</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E124" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F124">
         <v>5</v>
@@ -3343,19 +3343,19 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C125">
         <v>100</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E125" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F125">
         <v>5</v>
@@ -3363,10 +3363,10 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B126" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C126">
         <v>100</v>
@@ -3375,7 +3375,7 @@
         <v>6</v>
       </c>
       <c r="E126" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -3383,10 +3383,10 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B127" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C127">
         <v>500</v>
@@ -3395,7 +3395,7 @@
         <v>6</v>
       </c>
       <c r="E127" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F127">
         <v>5</v>
@@ -3403,19 +3403,19 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B129" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C129">
         <v>100</v>
       </c>
       <c r="D129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E129" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -3423,19 +3423,19 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B130" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C130">
         <v>100</v>
       </c>
       <c r="D130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E130" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F130">
         <v>6</v>
@@ -3443,19 +3443,19 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B131" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C131">
         <v>100</v>
       </c>
       <c r="D131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E131" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F131">
         <v>6</v>
@@ -3463,19 +3463,19 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B132" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C132">
         <v>100</v>
       </c>
       <c r="D132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E132" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F132">
         <v>6</v>
@@ -3483,19 +3483,19 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B133" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C133">
         <v>100</v>
       </c>
       <c r="D133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E133" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F133">
         <v>6</v>
@@ -3503,19 +3503,19 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B134" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C134">
         <v>100</v>
       </c>
       <c r="D134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E134" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F134">
         <v>6</v>
@@ -3523,10 +3523,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B135" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C135">
         <v>500</v>
@@ -3535,7 +3535,7 @@
         <v>6</v>
       </c>
       <c r="E135" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F135">
         <v>6</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C136">
         <v>100</v>
@@ -3555,7 +3555,7 @@
         <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F136">
         <v>6</v>
@@ -3563,10 +3563,10 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B137" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C137">
         <v>100</v>
@@ -3575,7 +3575,7 @@
         <v>6</v>
       </c>
       <c r="E137" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F137">
         <v>6</v>
@@ -3583,19 +3583,19 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B139" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C139">
         <v>100</v>
       </c>
       <c r="D139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E139" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F139">
         <v>7</v>
@@ -3603,19 +3603,19 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B140" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C140">
         <v>100</v>
       </c>
       <c r="D140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E140" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F140">
         <v>7</v>
@@ -3623,19 +3623,19 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B141" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C141">
         <v>100</v>
       </c>
       <c r="D141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E141" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F141">
         <v>7</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B142" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C142">
         <v>500</v>
@@ -3655,7 +3655,7 @@
         <v>6</v>
       </c>
       <c r="E142" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F142">
         <v>7</v>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B143" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C143">
         <v>200</v>
@@ -3675,7 +3675,7 @@
         <v>6</v>
       </c>
       <c r="E143" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F143">
         <v>7</v>
@@ -3683,19 +3683,19 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B145" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C145">
         <v>100</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E145" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F145">
         <v>8</v>
@@ -3703,19 +3703,19 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B146" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C146">
         <v>100</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E146" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F146">
         <v>8</v>
@@ -3723,19 +3723,19 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B147" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C147">
         <v>100</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E147" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F147">
         <v>8</v>
@@ -3743,10 +3743,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C148">
         <v>200</v>
@@ -3755,7 +3755,7 @@
         <v>6</v>
       </c>
       <c r="E148" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F148">
         <v>8</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C149">
         <v>200</v>
@@ -3775,7 +3775,7 @@
         <v>6</v>
       </c>
       <c r="E149" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F149">
         <v>8</v>
@@ -3783,10 +3783,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B150" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C150">
         <v>300</v>
@@ -3795,7 +3795,7 @@
         <v>6</v>
       </c>
       <c r="E150" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F150">
         <v>8</v>
